--- a/Assets/Res/Exel/对战技能.xlsx
+++ b/Assets/Res/Exel/对战技能.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResConfig\Assets\Res\Exel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
-  <si>
-    <t>SkillId</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>HeroId</t>
   </si>
@@ -107,7 +109,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -125,7 +127,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -143,7 +145,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>130%</t>
     </r>
@@ -188,7 +190,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>30%</t>
     </r>
@@ -220,7 +222,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -238,7 +240,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>30%</t>
     </r>
@@ -256,7 +258,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -294,7 +296,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>200%</t>
     </r>
@@ -326,7 +328,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -361,7 +363,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>BUFF</t>
     </r>
@@ -379,7 +381,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -414,7 +416,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>10%</t>
     </r>
@@ -446,7 +448,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -464,7 +466,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>40%</t>
     </r>
@@ -482,7 +484,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -520,7 +522,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>30%</t>
     </r>
@@ -538,7 +540,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -579,7 +581,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>10%</t>
     </r>
@@ -597,7 +599,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -615,7 +617,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>50%</t>
     </r>
@@ -668,7 +670,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>50%</t>
     </r>
@@ -706,7 +708,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>30%</t>
     </r>
@@ -724,7 +726,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -756,7 +758,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -788,7 +790,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -807,19 +809,17 @@
   </si>
   <si>
     <t>【雪魔咒】死亡后，冰冻住对手两回合，增加其防御力30%。</t>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,157 +848,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1011,194 +873,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1221,255 +897,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1494,62 +928,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1836,79 +1227,77 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="12" width="15.125" customWidth="1"/>
     <col min="13" max="13" width="26.125" customWidth="1"/>
     <col min="14" max="17" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" ht="24" customHeight="1" spans="1:17">
+    <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>222001</v>
       </c>
@@ -1916,7 +1305,7 @@
         <v>21001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1928,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -1940,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1">
         <v>3</v>
@@ -1958,10 +1347,10 @@
         <v>-1</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="3" ht="67.5" spans="1:17">
+    <row r="3" spans="1:17" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>222002</v>
       </c>
@@ -1969,19 +1358,19 @@
         <v>21001</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -2011,10 +1400,10 @@
         <v>223014</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="4" ht="57" spans="1:17">
+    <row r="4" spans="1:17" ht="57" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>222003</v>
       </c>
@@ -2022,7 +1411,7 @@
         <v>21002</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -2034,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -2064,10 +1453,10 @@
         <v>-1</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="5" ht="71.25" spans="1:17">
+    <row r="5" spans="1:17" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>222004</v>
       </c>
@@ -2075,7 +1464,7 @@
         <v>21002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -2087,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -2117,10 +1506,10 @@
         <v>223030</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="6" ht="42.75" spans="1:17">
+    <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>222005</v>
       </c>
@@ -2128,7 +1517,7 @@
         <v>21003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2140,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -2170,10 +1559,10 @@
         <v>-1</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="7" ht="28.5" spans="1:17">
+    <row r="7" spans="1:17" ht="199.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>222006</v>
       </c>
@@ -2181,7 +1570,7 @@
         <v>21003</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -2193,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -2223,10 +1612,10 @@
         <v>223046</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="8" ht="42.75" spans="1:17">
+    <row r="8" spans="1:17" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>222007</v>
       </c>
@@ -2234,7 +1623,7 @@
         <v>21004</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -2246,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -2276,10 +1665,10 @@
         <v>-1</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="9" ht="57" spans="1:17">
+    <row r="9" spans="1:17" ht="57" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>222008</v>
       </c>
@@ -2287,7 +1676,7 @@
         <v>21004</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -2299,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -2329,10 +1718,10 @@
         <v>-1</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="10" ht="57" spans="1:17">
+    <row r="10" spans="1:17" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>222009</v>
       </c>
@@ -2340,7 +1729,7 @@
         <v>21005</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
@@ -2352,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1">
         <v>3</v>
@@ -2382,10 +1771,10 @@
         <v>-1</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="11" ht="57" spans="1:17">
+    <row r="11" spans="1:17" ht="57" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>222010</v>
       </c>
@@ -2393,7 +1782,7 @@
         <v>21005</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="5">
         <v>2</v>
@@ -2405,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="1">
         <v>3</v>
@@ -2417,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11" s="1">
         <v>1</v>
@@ -2435,10 +1824,10 @@
         <v>-1</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="12" ht="57" spans="1:17">
+    <row r="12" spans="1:17" ht="57" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>222011</v>
       </c>
@@ -2446,7 +1835,7 @@
         <v>21006</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -2458,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
@@ -2488,10 +1877,10 @@
         <v>-1</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="13" ht="42.75" spans="1:17">
+    <row r="13" spans="1:17" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>222012</v>
       </c>
@@ -2499,7 +1888,7 @@
         <v>21006</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -2511,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -2541,10 +1930,10 @@
         <v>223062</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="14" ht="57" spans="1:17">
+    <row r="14" spans="1:17" ht="57" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>222013</v>
       </c>
@@ -2552,7 +1941,7 @@
         <v>21007</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -2564,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -2594,10 +1983,10 @@
         <v>-1</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="15" ht="57" spans="1:17">
+    <row r="15" spans="1:17" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>222014</v>
       </c>
@@ -2605,7 +1994,7 @@
         <v>21007</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -2617,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -2647,10 +2036,10 @@
         <v>-1</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="16" ht="142.5" spans="1:17">
+    <row r="16" spans="1:17" ht="142.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>222015</v>
       </c>
@@ -2658,7 +2047,7 @@
         <v>21008</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="5">
         <v>2</v>
@@ -2670,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -2682,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L16" s="1">
         <v>3</v>
@@ -2700,10 +2089,10 @@
         <v>-1</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="17" ht="42.75" spans="1:17">
+    <row r="17" spans="1:17" ht="285" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>222016</v>
       </c>
@@ -2711,7 +2100,7 @@
         <v>21008</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="5">
         <v>2</v>
@@ -2723,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="1">
         <v>3</v>
@@ -2753,10 +2142,10 @@
         <v>-1</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="18" ht="42.75" spans="1:17">
+    <row r="18" spans="1:17" ht="384.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>222017</v>
       </c>
@@ -2764,7 +2153,7 @@
         <v>21009</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -2776,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="1">
         <v>3</v>
@@ -2806,10 +2195,10 @@
         <v>-1</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="19" ht="42.75" spans="1:17">
+    <row r="19" spans="1:17" ht="285" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>222018</v>
       </c>
@@ -2817,7 +2206,7 @@
         <v>21009</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
@@ -2829,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19" s="1">
         <v>3</v>
@@ -2859,10 +2248,10 @@
         <v>-1</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="20" ht="42.75" spans="1:17">
+    <row r="20" spans="1:17" ht="380.25" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>222019</v>
       </c>
@@ -2870,7 +2259,7 @@
         <v>21010</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -2882,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="1">
         <v>3</v>
@@ -2912,10 +2301,10 @@
         <v>-1</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="21" ht="57" spans="1:17">
+    <row r="21" spans="1:17" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>222020</v>
       </c>
@@ -2923,7 +2312,7 @@
         <v>21010</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -2935,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
@@ -2965,10 +2354,10 @@
         <v>223078</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="22" ht="71.25" spans="1:17">
+    <row r="22" spans="1:17" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>222021</v>
       </c>
@@ -2976,7 +2365,7 @@
         <v>21011</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -2988,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="1">
         <v>3</v>
@@ -3018,10 +2407,10 @@
         <v>-1</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="23" ht="71.25" spans="1:17">
+    <row r="23" spans="1:17" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>222022</v>
       </c>
@@ -3029,7 +2418,7 @@
         <v>21011</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -3041,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H23" s="1">
         <v>3</v>
@@ -3071,10 +2460,10 @@
         <v>-1</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="24" ht="42.75" spans="1:17">
+    <row r="24" spans="1:17" ht="327.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>222023</v>
       </c>
@@ -3082,7 +2471,7 @@
         <v>21012</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="4">
         <v>2</v>
@@ -3094,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" s="1">
         <v>3</v>
@@ -3124,10 +2513,10 @@
         <v>-1</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="25" ht="42.75" spans="1:17">
+    <row r="25" spans="1:17" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>222024</v>
       </c>
@@ -3135,7 +2524,7 @@
         <v>21012</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -3147,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H25" s="1">
         <v>3</v>
@@ -3177,46 +2566,40 @@
         <v>223094</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>